--- a/medicine/Handicap/Foyer_d’hébergement/Foyer_d’hébergement.xlsx
+++ b/medicine/Handicap/Foyer_d’hébergement/Foyer_d’hébergement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Foyer_d%E2%80%99h%C3%A9bergement</t>
+          <t>Foyer_d’hébergement</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les foyers d’hébergement sont des structures d’accueil ayant pour objectif de placer la personne handicapée (adulte) dans une dynamique d’insertion sociale. Ils assurent l'hébergement et l'entretien des personnes handicapées qui exercent une activité pendant la journée, en milieu protégé ou en milieu ordinaire, dans différents établissements.
 Souvent rattachés à un service d'aide par le travail (ESAT), à une entreprise adaptée ou un Centre d'initiation au travail et aux loisirs (CITL).
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Foyer_d%E2%80%99h%C3%A9bergement</t>
+          <t>Foyer_d’hébergement</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Type de foyer et modalités</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">En cherchant à laisser une large place à l’autonomie, les hébergements sont collectifs (chambre) ou individuels. Dans ce dernier cas on propose à la personne de vivre dans un logement spécialement aménagé, dont l’entretien est alors sous sa responsabilité.
 Les frais sont à la charge de l'adulte handicapé et la participation est variable en fonction des prestations offertes par le foyer et selon la situation professionnelle et familiale de la personne, sous réserve des ressources à sa disposition.
